--- a/WebProject/src/main/webapp/resources/테이블 명세서 (2016-05-17).xlsx
+++ b/WebProject/src/main/webapp/resources/테이블 명세서 (2016-05-17).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KWANGHYUN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KWANGHYUN\Documents\[스프링 웹 프로젝트]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6144" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="건물정보" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="200">
   <si>
     <t>TABLE INFORMATION</t>
   </si>
@@ -620,6 +620,10 @@
   <si>
     <t>2016-05-12 
 오전 6:33:02</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1449,15 +1453,27 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1470,50 +1486,38 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1847,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1863,59 +1867,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.2" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.2" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.549999999999997" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="38.549999999999997" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -1924,25 +1928,25 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="6" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2301,10 +2305,10 @@
       <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2661,15 +2665,15 @@
     </row>
     <row r="38" spans="1:7" ht="13.8" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:7" ht="10.95" customHeight="1" thickTop="1">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2703,59 +2707,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.2" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.2" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="38.4" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="38" t="s">
         <v>12</v>
       </c>
@@ -2774,25 +2778,25 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2990,10 +2994,10 @@
       <c r="C15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -3013,10 +3017,10 @@
       <c r="C16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -3036,10 +3040,10 @@
       <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -3059,10 +3063,10 @@
       <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -3082,10 +3086,10 @@
       <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -3128,15 +3132,15 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="18" thickTop="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3174,59 +3178,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.2" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="19" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.2" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.4" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="38.4" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="38" t="s">
         <v>12</v>
       </c>
@@ -3245,25 +3249,25 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="28.2" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3277,10 +3281,10 @@
       <c r="C7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -3300,10 +3304,10 @@
       <c r="C8" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -3369,10 +3373,10 @@
       <c r="C11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -3737,15 +3741,15 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="18" thickTop="1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3767,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3778,59 +3782,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="19" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="20" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="22.2" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="38" t="s">
         <v>12</v>
       </c>
@@ -3849,25 +3853,25 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="25.2" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3881,10 +3885,10 @@
       <c r="C7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -3904,10 +3908,10 @@
       <c r="C8" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -3927,7 +3931,7 @@
       <c r="C9" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -3950,7 +3954,7 @@
       <c r="C10" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -3973,7 +3977,7 @@
       <c r="C11" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3996,7 +4000,7 @@
       <c r="C12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -4019,7 +4023,7 @@
       <c r="C13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -4042,7 +4046,7 @@
       <c r="C14" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -4065,7 +4069,7 @@
       <c r="C15" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -4088,7 +4092,7 @@
       <c r="C16" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="13" t="s">

--- a/WebProject/src/main/webapp/resources/테이블 명세서 (2016-05-17).xlsx
+++ b/WebProject/src/main/webapp/resources/테이블 명세서 (2016-05-17).xlsx
@@ -15,14 +15,15 @@
     <sheet name="건물정보" sheetId="1" r:id="rId1"/>
     <sheet name="관련지번정보" sheetId="2" r:id="rId2"/>
     <sheet name="도로명코드" sheetId="3" r:id="rId3"/>
-    <sheet name="회원정보" sheetId="4" r:id="rId4"/>
+    <sheet name="시군구코드" sheetId="5" r:id="rId4"/>
+    <sheet name="회원정보" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="202">
   <si>
     <t>TABLE INFORMATION</t>
   </si>
@@ -625,6 +626,12 @@
   <si>
     <t>PK</t>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-18 오전 11:37:12</t>
+  </si>
+  <si>
+    <t>시군구코드</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,6 +1534,27 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1851,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3164,7 +3192,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G4"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3769,9 +3797,202 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.200000000000003" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="35.4" customHeight="1">
+      <c r="A4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="33" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
